--- a/docs/others/07.学习笔记（何光主）.xlsx
+++ b/docs/others/07.学习笔记（何光主）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -1308,6 +1308,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">7.单元格中常用的属性：
 加在table上面
 </t>
@@ -36371,8 +36378,8 @@
   </sheetPr>
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -37721,7 +37728,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" ht="115.2" spans="1:5">
+    <row r="102" ht="144" customHeight="1" spans="1:5">
       <c r="A102" s="24"/>
       <c r="B102" s="10" t="s">
         <v>1841</v>
@@ -37975,8 +37982,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -44685,7 +44692,7 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="70" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="70" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H10" sqref="H10:I12"/>
     </sheetView>
   </sheetViews>
